--- a/data/trans_dic/P23_1_2016_2023_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3047060171520959</v>
+        <v>0.3069453772027539</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1850847027701628</v>
+        <v>0.1910871163910575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2076495397860889</v>
+        <v>0.2051321419634563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1730399273190198</v>
+        <v>0.177493031278212</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2700587894560576</v>
+        <v>0.2639720569709981</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1941677622799313</v>
+        <v>0.1927541174655321</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4228278575834483</v>
+        <v>0.4188752516938808</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2904943308850426</v>
+        <v>0.2950948281028629</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3151364491497499</v>
+        <v>0.3100526868826073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2500691124501425</v>
+        <v>0.247532245427113</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3480638986427715</v>
+        <v>0.3468610670835894</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.25792408859705</v>
+        <v>0.2542332969606408</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.375146860173872</v>
+        <v>0.3710531273401255</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2140047718446677</v>
+        <v>0.2031365170332769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2280912126032569</v>
+        <v>0.2330216687303114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1586727330120954</v>
+        <v>0.1603613196088643</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3131369900519734</v>
+        <v>0.3114620471769159</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1952287866011011</v>
+        <v>0.1963390941868921</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4612894916299427</v>
+        <v>0.4609058487255014</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3106260555939131</v>
+        <v>0.3056346701019641</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3063087704492884</v>
+        <v>0.3074335655005928</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2197941728255511</v>
+        <v>0.2220491744654872</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.37479946468518</v>
+        <v>0.3715636587688736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2515104420275319</v>
+        <v>0.2536646488262799</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2555268362168266</v>
+        <v>0.255614511673097</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2070983455759561</v>
+        <v>0.2074934795149166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1970574679787342</v>
+        <v>0.1954025471139759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.150852157525538</v>
+        <v>0.149110209133047</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.241514861146699</v>
+        <v>0.2390903412388136</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1882681041413191</v>
+        <v>0.1847660106014845</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3544187808554471</v>
+        <v>0.3574327049174115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2998667420175532</v>
+        <v>0.3043861804672953</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2838719234281922</v>
+        <v>0.2890352995003008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2203533531755233</v>
+        <v>0.2220932241035765</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3055236517860644</v>
+        <v>0.3091741562053482</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2446750733542045</v>
+        <v>0.2444941232776069</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3224428693855744</v>
+        <v>0.3270545405761193</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.193018728449997</v>
+        <v>0.1922507017797575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.230956069195597</v>
+        <v>0.233678627319666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1549134019085944</v>
+        <v>0.1516915395765133</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2939052070647897</v>
+        <v>0.2925087523298938</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1843523243691246</v>
+        <v>0.1857746389085532</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4270572112008059</v>
+        <v>0.4321608259923127</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.321349453113839</v>
+        <v>0.3185381636363206</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3287383483816649</v>
+        <v>0.3293274701358817</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2331368140103415</v>
+        <v>0.232589879233296</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3623102087178073</v>
+        <v>0.3658827985085915</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2556355805461138</v>
+        <v>0.2557764238127089</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3352726614719509</v>
+        <v>0.3376298992674674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1603267042443932</v>
+        <v>0.1541065063300679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1090386743601453</v>
+        <v>0.1099948334886457</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2806331833752189</v>
+        <v>0.2849783842991657</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1433408597354857</v>
+        <v>0.1402679669293195</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4744101427805098</v>
+        <v>0.4773551021079643</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2549216240686827</v>
+        <v>0.2533411845550071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1742605199772786</v>
+        <v>0.1823250810703554</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3759815781744583</v>
+        <v>0.3758259911650237</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2024127856751943</v>
+        <v>0.1979422809754426</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.2674992022600141</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1853479947328306</v>
+        <v>0.1853479947328305</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.300777203415509</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2770288702590437</v>
+        <v>0.2802801562651467</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2286039742142464</v>
+        <v>0.2350541064481423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2182239491646378</v>
+        <v>0.2178699000924394</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1495222421152161</v>
+        <v>0.1476588612917062</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2651142020136563</v>
+        <v>0.2632146800128091</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2035588943263971</v>
+        <v>0.2024570226213592</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3967638578200474</v>
+        <v>0.3938916391465125</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3308416026543257</v>
+        <v>0.3403166786112312</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3325881327561677</v>
+        <v>0.3224707410047542</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2265224548485566</v>
+        <v>0.2245610168041823</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3397757892659958</v>
+        <v>0.3413470650265786</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2685335418604856</v>
+        <v>0.2659032781240152</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2643800030872708</v>
+        <v>0.2621677661187848</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2271142530321331</v>
+        <v>0.2304469151970719</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2174127110852898</v>
+        <v>0.2171862961060783</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2017872866634878</v>
+        <v>0.2025823735423079</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2483016760564204</v>
+        <v>0.2499621361550119</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2240806955757239</v>
+        <v>0.221966025792009</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3374686429087441</v>
+        <v>0.3389836224493604</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3055106521527334</v>
+        <v>0.3036185927079236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2828428283354438</v>
+        <v>0.2858297151838854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2597820089986344</v>
+        <v>0.2600235652377796</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2978302620234682</v>
+        <v>0.3042327351890305</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2700633649763901</v>
+        <v>0.2683391235835992</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2951184095599743</v>
+        <v>0.2927190097541907</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2259216610757568</v>
+        <v>0.2293886563548672</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2280546337031535</v>
+        <v>0.2317544242896866</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1414221631550979</v>
+        <v>0.1408819149045296</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2693779087967666</v>
+        <v>0.2696820434473863</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1890275460222921</v>
+        <v>0.1897603424287376</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3644199455347222</v>
+        <v>0.3606141943039228</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.293544242697366</v>
+        <v>0.2958211180347996</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2896240722738817</v>
+        <v>0.2909851767432761</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.190042181808581</v>
+        <v>0.1882645672415322</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3165788775017832</v>
+        <v>0.3153489274723229</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2335324024501525</v>
+        <v>0.2319518388221628</v>
       </c>
     </row>
     <row r="28">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89511</v>
+        <v>90169</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>59013</v>
+        <v>60927</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>59949</v>
+        <v>59222</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>54691</v>
+        <v>56099</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>157300</v>
+        <v>153754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>123278</v>
+        <v>122381</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124210</v>
+        <v>123049</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>92623</v>
+        <v>94090</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>90981</v>
+        <v>89513</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>79037</v>
+        <v>78235</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>202735</v>
+        <v>202034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>163758</v>
+        <v>161414</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>188215</v>
+        <v>186161</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>113561</v>
+        <v>107794</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>118810</v>
+        <v>121378</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>86714</v>
+        <v>87636</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>320213</v>
+        <v>318500</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>210289</v>
+        <v>211485</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>231434</v>
+        <v>231242</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>164833</v>
+        <v>162184</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>159552</v>
+        <v>160138</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>120116</v>
+        <v>121349</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>383269</v>
+        <v>379960</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>270912</v>
+        <v>273233</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>81402</v>
+        <v>81430</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65442</v>
+        <v>65566</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>66272</v>
+        <v>65716</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>53761</v>
+        <v>53140</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>158162</v>
+        <v>156574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>126587</v>
+        <v>124232</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>112905</v>
+        <v>113866</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94756</v>
+        <v>96184</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>95469</v>
+        <v>97205</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>78530</v>
+        <v>79150</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>200079</v>
+        <v>202470</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>164513</v>
+        <v>164392</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>119292</v>
+        <v>120998</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>72024</v>
+        <v>71737</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>89149</v>
+        <v>90199</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>65367</v>
+        <v>64008</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>222181</v>
+        <v>221126</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>146580</v>
+        <v>147711</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>157996</v>
+        <v>159884</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>119910</v>
+        <v>118861</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>126892</v>
+        <v>127120</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>98375</v>
+        <v>98144</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>273893</v>
+        <v>276593</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>203258</v>
+        <v>203370</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>70817</v>
+        <v>71315</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32974</v>
+        <v>31694</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24775</v>
+        <v>24992</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>120618</v>
+        <v>122486</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>62049</v>
+        <v>60719</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>100205</v>
+        <v>100827</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>52428</v>
+        <v>52103</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39595</v>
+        <v>41427</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>161600</v>
+        <v>161533</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87620</v>
+        <v>85685</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>72893</v>
+        <v>73748</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>61885</v>
+        <v>63631</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>59600</v>
+        <v>59504</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>39436</v>
+        <v>38945</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>142164</v>
+        <v>141146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>108793</v>
+        <v>108205</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>104398</v>
+        <v>103642</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>89561</v>
+        <v>92126</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>90835</v>
+        <v>88072</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>59745</v>
+        <v>59228</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>182201</v>
+        <v>183043</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>143520</v>
+        <v>142114</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>173297</v>
+        <v>171847</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>162938</v>
+        <v>165329</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>149871</v>
+        <v>149715</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>155010</v>
+        <v>155621</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>333922</v>
+        <v>336155</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>332897</v>
+        <v>329755</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>221206</v>
+        <v>222199</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>219182</v>
+        <v>217824</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>194975</v>
+        <v>197034</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>199561</v>
+        <v>199746</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>400530</v>
+        <v>409140</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>401209</v>
+        <v>398648</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>229774</v>
+        <v>227906</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>180044</v>
+        <v>182807</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>188411</v>
+        <v>191468</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>117569</v>
+        <v>117120</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>432284</v>
+        <v>432772</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>307786</v>
+        <v>308980</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>283731</v>
+        <v>280768</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>233934</v>
+        <v>235749</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>239278</v>
+        <v>240402</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>157988</v>
+        <v>156510</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>508030</v>
+        <v>506056</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>380252</v>
+        <v>377678</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
     </row>
     <row r="40">
